--- a/biology/Zoologie/Burmadictyna_pecten/Burmadictyna_pecten.xlsx
+++ b/biology/Zoologie/Burmadictyna_pecten/Burmadictyna_pecten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burmadictyna pecten est une espèce fossile d'araignées aranéomorphes de la famille des Burmadictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burmadictyna pecten est une espèce fossile d'araignées aranéomorphes de la famille des Burmadictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wunderlich, 2008 : The dominance of ancient spider families of the Araneae: Haplogyne in the Cretaceous, and the late diversification of advanced ecribellate spiders of the Entelegynae after the Cretaceous–Tertiary boundary extinction events, with descriptions of new families. Beiträge zur Araneologie, vol. 5, p. 524–675 (en).</t>
         </is>
